--- a/converter/data/xlsx/21.5._BSMJENA.XLSX
+++ b/converter/data/xlsx/21.5._BSMJENA.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9960" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="134">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -2263,7 +2268,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3062,15 +3067,9 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3085,9 +3084,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3305,6 +3301,39 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3329,44 +3358,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3829,7 +3825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3864,7 +3860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4079,128 +4075,128 @@
   <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H9" sqref="H9:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="6" customWidth="1"/>
-    <col min="31" max="32" width="5.5703125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="6" customWidth="1"/>
-    <col min="34" max="36" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="6" customWidth="1"/>
+    <col min="31" max="32" width="5.5546875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="6" customWidth="1"/>
+    <col min="34" max="36" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="417" t="s">
+    <row r="1" spans="1:36" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="425" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="417"/>
-      <c r="F1" s="417"/>
-      <c r="G1" s="417"/>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
-      <c r="P1" s="417"/>
-      <c r="Q1" s="417"/>
-      <c r="R1" s="417"/>
-      <c r="S1" s="417"/>
-      <c r="T1" s="417"/>
-      <c r="U1" s="417"/>
-      <c r="V1" s="417"/>
-      <c r="W1" s="417"/>
-      <c r="X1" s="417"/>
-      <c r="Y1" s="417"/>
-      <c r="Z1" s="417"/>
-      <c r="AA1" s="417"/>
-      <c r="AB1" s="417"/>
-      <c r="AC1" s="417"/>
-      <c r="AD1" s="417"/>
-      <c r="AE1" s="417"/>
-      <c r="AF1" s="417"/>
-      <c r="AG1" s="417"/>
-      <c r="AH1" s="417"/>
-      <c r="AI1" s="417"/>
-      <c r="AJ1" s="417"/>
-    </row>
-    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="425"/>
+      <c r="G1" s="425"/>
+      <c r="H1" s="425"/>
+      <c r="I1" s="425"/>
+      <c r="J1" s="425"/>
+      <c r="K1" s="425"/>
+      <c r="L1" s="425"/>
+      <c r="M1" s="425"/>
+      <c r="N1" s="425"/>
+      <c r="O1" s="425"/>
+      <c r="P1" s="425"/>
+      <c r="Q1" s="425"/>
+      <c r="R1" s="425"/>
+      <c r="S1" s="425"/>
+      <c r="T1" s="425"/>
+      <c r="U1" s="425"/>
+      <c r="V1" s="425"/>
+      <c r="W1" s="425"/>
+      <c r="X1" s="425"/>
+      <c r="Y1" s="425"/>
+      <c r="Z1" s="425"/>
+      <c r="AA1" s="425"/>
+      <c r="AB1" s="425"/>
+      <c r="AC1" s="425"/>
+      <c r="AD1" s="425"/>
+      <c r="AE1" s="425"/>
+      <c r="AF1" s="425"/>
+      <c r="AG1" s="425"/>
+      <c r="AH1" s="425"/>
+      <c r="AI1" s="425"/>
+      <c r="AJ1" s="425"/>
+    </row>
+    <row r="2" spans="1:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="418" t="s">
+      <c r="B2" s="426" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
-      <c r="G2" s="419"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="421" t="s">
+      <c r="C2" s="427"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="427"/>
+      <c r="F2" s="427"/>
+      <c r="G2" s="427"/>
+      <c r="H2" s="428"/>
+      <c r="I2" s="429" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="419"/>
-      <c r="K2" s="419"/>
-      <c r="L2" s="419"/>
-      <c r="M2" s="419"/>
-      <c r="N2" s="419"/>
-      <c r="O2" s="420"/>
-      <c r="P2" s="418" t="s">
+      <c r="J2" s="427"/>
+      <c r="K2" s="427"/>
+      <c r="L2" s="427"/>
+      <c r="M2" s="427"/>
+      <c r="N2" s="427"/>
+      <c r="O2" s="428"/>
+      <c r="P2" s="426" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="419"/>
-      <c r="R2" s="419"/>
-      <c r="S2" s="419"/>
-      <c r="T2" s="419"/>
-      <c r="U2" s="419"/>
-      <c r="V2" s="420"/>
-      <c r="W2" s="421" t="s">
+      <c r="Q2" s="427"/>
+      <c r="R2" s="427"/>
+      <c r="S2" s="427"/>
+      <c r="T2" s="427"/>
+      <c r="U2" s="427"/>
+      <c r="V2" s="428"/>
+      <c r="W2" s="429" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="419"/>
-      <c r="Y2" s="419"/>
-      <c r="Z2" s="419"/>
-      <c r="AA2" s="419"/>
-      <c r="AB2" s="419"/>
-      <c r="AC2" s="420"/>
-      <c r="AD2" s="422" t="s">
+      <c r="X2" s="427"/>
+      <c r="Y2" s="427"/>
+      <c r="Z2" s="427"/>
+      <c r="AA2" s="427"/>
+      <c r="AB2" s="427"/>
+      <c r="AC2" s="428"/>
+      <c r="AD2" s="430" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="423"/>
-      <c r="AF2" s="423"/>
-      <c r="AG2" s="423"/>
-      <c r="AH2" s="423"/>
-      <c r="AI2" s="423"/>
-      <c r="AJ2" s="424"/>
-    </row>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="431"/>
+      <c r="AF2" s="431"/>
+      <c r="AG2" s="431"/>
+      <c r="AH2" s="431"/>
+      <c r="AI2" s="431"/>
+      <c r="AJ2" s="432"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>74</v>
       </c>
@@ -4368,7 +4364,7 @@
       <c r="AI4" s="31"/>
       <c r="AJ4" s="73"/>
     </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="157" t="s">
         <v>75</v>
       </c>
@@ -4440,7 +4436,7 @@
       <c r="AI5" s="84"/>
       <c r="AJ5" s="245"/>
     </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>38</v>
       </c>
@@ -4500,7 +4496,7 @@
       <c r="AI6" s="34"/>
       <c r="AJ6" s="45"/>
     </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
@@ -4544,7 +4540,7 @@
       </c>
       <c r="AJ7" s="43"/>
     </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>76</v>
       </c>
@@ -4614,7 +4610,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="35"/>
     </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>49</v>
       </c>
@@ -4624,9 +4620,7 @@
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
-      <c r="H9" s="79" t="s">
-        <v>91</v>
-      </c>
+      <c r="H9" s="79"/>
       <c r="I9" s="22"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -4660,7 +4654,7 @@
       <c r="AI9" s="12"/>
       <c r="AJ9" s="35"/>
     </row>
-    <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
@@ -4704,7 +4698,7 @@
       <c r="AI10" s="12"/>
       <c r="AJ10" s="35"/>
     </row>
-    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
@@ -4718,9 +4712,7 @@
       <c r="G11" s="323" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="333" t="s">
-        <v>91</v>
-      </c>
+      <c r="H11" s="76"/>
       <c r="I11" s="12"/>
       <c r="J11" s="22"/>
       <c r="K11" s="12"/>
@@ -4758,7 +4750,7 @@
       <c r="AI11" s="12"/>
       <c r="AJ11" s="35"/>
     </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="157" t="s">
         <v>132</v>
       </c>
@@ -4806,7 +4798,7 @@
       <c r="AI12" s="37"/>
       <c r="AJ12" s="41"/>
     </row>
-    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>77</v>
       </c>
@@ -4856,7 +4848,7 @@
       <c r="AI13" s="40"/>
       <c r="AJ13" s="29"/>
     </row>
-    <row r="14" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -4871,13 +4863,13 @@
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
-      <c r="I14" s="433" t="s">
+      <c r="I14" s="414" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="433" t="s">
+      <c r="J14" s="414" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="433" t="s">
+      <c r="K14" s="414" t="s">
         <v>128</v>
       </c>
       <c r="L14" s="24"/>
@@ -4912,7 +4904,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
@@ -4972,7 +4964,7 @@
       <c r="AI15" s="12"/>
       <c r="AJ15" s="35"/>
     </row>
-    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>112</v>
       </c>
@@ -5014,7 +5006,7 @@
       <c r="AI16" s="12"/>
       <c r="AJ16" s="35"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
@@ -5058,16 +5050,12 @@
       <c r="AI17" s="12"/>
       <c r="AJ17" s="35"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="324" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="323" t="s">
-        <v>102</v>
-      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="75"/>
       <c r="E18" s="81"/>
       <c r="F18" s="75"/>
@@ -5085,7 +5073,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="392"/>
+      <c r="U18" s="389"/>
       <c r="V18" s="26"/>
       <c r="W18" s="33"/>
       <c r="X18" s="12"/>
@@ -5113,16 +5101,12 @@
       <c r="AJ18" s="35"/>
       <c r="AK18" s="121"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>102</v>
-      </c>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="75" t="s">
         <v>86</v>
       </c>
@@ -5168,7 +5152,7 @@
       <c r="AJ19" s="35"/>
       <c r="AK19" s="121"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>50</v>
       </c>
@@ -5219,7 +5203,7 @@
       <c r="AJ20" s="35"/>
       <c r="AK20" s="121"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
@@ -5274,7 +5258,7 @@
       <c r="AJ21" s="35"/>
       <c r="AK21" s="121"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
@@ -5285,13 +5269,13 @@
       <c r="F22" s="86"/>
       <c r="G22" s="86"/>
       <c r="H22" s="87"/>
-      <c r="I22" s="434" t="s">
+      <c r="I22" s="415" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="435" t="s">
+      <c r="J22" s="416" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="435" t="s">
+      <c r="K22" s="416" t="s">
         <v>130</v>
       </c>
       <c r="L22" s="37"/>
@@ -5305,15 +5289,15 @@
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
       <c r="V22" s="38"/>
-      <c r="W22" s="411"/>
-      <c r="X22" s="412"/>
+      <c r="W22" s="408"/>
+      <c r="X22" s="409"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
-      <c r="AB22" s="413" t="s">
+      <c r="AB22" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="AC22" s="414" t="s">
+      <c r="AC22" s="411" t="s">
         <v>105</v>
       </c>
       <c r="AD22" s="310"/>
@@ -5321,15 +5305,15 @@
       <c r="AF22" s="37"/>
       <c r="AG22" s="37"/>
       <c r="AH22" s="37"/>
-      <c r="AI22" s="349" t="s">
+      <c r="AI22" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="AJ22" s="350" t="s">
+      <c r="AJ22" s="347" t="s">
         <v>83</v>
       </c>
       <c r="AK22" s="121"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -5391,7 +5375,7 @@
       <c r="AK23" s="121"/>
       <c r="AL23" s="121"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="157" t="s">
         <v>13</v>
       </c>
@@ -5511,7 +5495,7 @@
       <c r="AJ25" s="29"/>
       <c r="AM25" s="121"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>22</v>
       </c>
@@ -5557,7 +5541,7 @@
       <c r="AI26" s="40"/>
       <c r="AJ26" s="29"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>109</v>
       </c>
@@ -5601,7 +5585,7 @@
       <c r="AI27" s="40"/>
       <c r="AJ27" s="29"/>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>108</v>
       </c>
@@ -5670,16 +5654,16 @@
       <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="346" t="s">
+      <c r="B29" s="343" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="347" t="s">
+      <c r="C29" s="344" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="347" t="s">
+      <c r="D29" s="344" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="347" t="s">
+      <c r="E29" s="344" t="s">
         <v>91</v>
       </c>
       <c r="F29" s="77"/>
@@ -5728,11 +5712,11 @@
       <c r="AI29" s="273" t="s">
         <v>89</v>
       </c>
-      <c r="AJ29" s="404" t="s">
+      <c r="AJ29" s="401" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>43</v>
       </c>
@@ -5742,7 +5726,7 @@
       <c r="E30" s="311"/>
       <c r="F30" s="71"/>
       <c r="G30" s="311"/>
-      <c r="H30" s="325"/>
+      <c r="H30" s="324"/>
       <c r="I30" s="107"/>
       <c r="J30" s="116"/>
       <c r="K30" s="56"/>
@@ -5764,7 +5748,7 @@
       <c r="AA30" s="312"/>
       <c r="AB30" s="287"/>
       <c r="AC30" s="26"/>
-      <c r="AD30" s="399"/>
+      <c r="AD30" s="396"/>
       <c r="AE30" s="284"/>
       <c r="AF30" s="248"/>
       <c r="AG30" s="248"/>
@@ -5778,7 +5762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>44</v>
       </c>
@@ -5806,10 +5790,10 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="244"/>
       <c r="S31" s="244"/>
-      <c r="T31" s="329" t="s">
+      <c r="T31" s="327" t="s">
         <v>84</v>
       </c>
-      <c r="U31" s="334" t="s">
+      <c r="U31" s="331" t="s">
         <v>84</v>
       </c>
       <c r="V31" s="26" t="s">
@@ -5827,10 +5811,10 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
-      <c r="AI31" s="329" t="s">
+      <c r="AI31" s="327" t="s">
         <v>92</v>
       </c>
-      <c r="AJ31" s="330" t="s">
+      <c r="AJ31" s="328" t="s">
         <v>92</v>
       </c>
       <c r="AK31" s="192" t="s">
@@ -5840,21 +5824,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="263"/>
-      <c r="C32" s="243"/>
+      <c r="B32" s="263" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>102</v>
+      </c>
       <c r="D32" s="243"/>
-      <c r="E32" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="71" t="s">
-        <v>102</v>
-      </c>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
       <c r="G32" s="243"/>
-      <c r="H32" s="387"/>
+      <c r="H32" s="384"/>
       <c r="I32" s="22" t="s">
         <v>102</v>
       </c>
@@ -5884,8 +5868,8 @@
       <c r="AC32" s="26"/>
       <c r="AD32" s="22"/>
       <c r="AE32" s="12"/>
-      <c r="AF32" s="400"/>
-      <c r="AG32" s="400"/>
+      <c r="AF32" s="397"/>
+      <c r="AG32" s="397"/>
       <c r="AH32" s="228"/>
       <c r="AI32" s="12"/>
       <c r="AJ32" s="164"/>
@@ -5896,7 +5880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
@@ -5912,7 +5896,7 @@
       <c r="G33" s="75"/>
       <c r="H33" s="147"/>
       <c r="I33" s="138"/>
-      <c r="J33" s="358"/>
+      <c r="J33" s="355"/>
       <c r="K33" s="120"/>
       <c r="L33" s="138"/>
       <c r="M33" s="34"/>
@@ -5927,16 +5911,16 @@
         <v>84</v>
       </c>
       <c r="T33" s="223"/>
-      <c r="U33" s="328"/>
+      <c r="U33" s="326"/>
       <c r="V33" s="30"/>
       <c r="W33" s="106"/>
       <c r="X33" s="223"/>
       <c r="Y33" s="223"/>
       <c r="Z33" s="223"/>
-      <c r="AA33" s="328"/>
+      <c r="AA33" s="326"/>
       <c r="AB33" s="34"/>
       <c r="AC33" s="30"/>
-      <c r="AD33" s="327"/>
+      <c r="AD33" s="325"/>
       <c r="AE33" s="200"/>
       <c r="AF33" s="51" t="s">
         <v>84</v>
@@ -5960,23 +5944,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="389" t="s">
+      <c r="B34" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="390" t="s">
+      <c r="C34" s="387" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="390" t="s">
+      <c r="D34" s="387" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="390" t="s">
+      <c r="E34" s="387" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="391" t="s">
+      <c r="F34" s="388" t="s">
         <v>123</v>
       </c>
       <c r="G34" s="149" t="s">
@@ -5991,7 +5975,7 @@
       <c r="L34" s="125"/>
       <c r="M34" s="125"/>
       <c r="N34" s="278"/>
-      <c r="O34" s="405"/>
+      <c r="O34" s="402"/>
       <c r="P34" s="277"/>
       <c r="Q34" s="277"/>
       <c r="R34" s="296" t="s">
@@ -6014,15 +5998,15 @@
       <c r="AA34" s="277"/>
       <c r="AB34" s="278"/>
       <c r="AC34" s="152"/>
-      <c r="AD34" s="401"/>
+      <c r="AD34" s="398"/>
       <c r="AE34" s="288"/>
       <c r="AF34" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="AG34" s="336" t="s">
+      <c r="AG34" s="333" t="s">
         <v>92</v>
       </c>
-      <c r="AH34" s="336" t="s">
+      <c r="AH34" s="333" t="s">
         <v>92</v>
       </c>
       <c r="AI34" s="288"/>
@@ -6031,7 +6015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>39</v>
       </c>
@@ -6048,7 +6032,7 @@
       <c r="L35" s="244"/>
       <c r="M35" s="244"/>
       <c r="N35" s="124"/>
-      <c r="O35" s="337"/>
+      <c r="O35" s="334"/>
       <c r="P35" s="161"/>
       <c r="Q35" s="196"/>
       <c r="R35" s="196"/>
@@ -6073,26 +6057,26 @@
       <c r="AC35" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="AD35" s="379" t="s">
+      <c r="AD35" s="376" t="s">
         <v>118</v>
       </c>
-      <c r="AE35" s="380" t="s">
+      <c r="AE35" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="AF35" s="380" t="s">
+      <c r="AF35" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="AG35" s="381" t="s">
+      <c r="AG35" s="378" t="s">
         <v>118</v>
       </c>
-      <c r="AH35" s="398"/>
+      <c r="AH35" s="395"/>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="35"/>
       <c r="AK35" s="192" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>18</v>
       </c>
@@ -6117,16 +6101,16 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="120"/>
       <c r="R36" s="120"/>
-      <c r="S36" s="377" t="s">
+      <c r="S36" s="374" t="s">
         <v>118</v>
       </c>
-      <c r="T36" s="377" t="s">
+      <c r="T36" s="374" t="s">
         <v>118</v>
       </c>
-      <c r="U36" s="377" t="s">
+      <c r="U36" s="374" t="s">
         <v>118</v>
       </c>
-      <c r="V36" s="378" t="s">
+      <c r="V36" s="375" t="s">
         <v>118</v>
       </c>
       <c r="W36" s="84"/>
@@ -6147,7 +6131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>73</v>
       </c>
@@ -6188,7 +6172,7 @@
       <c r="AB37" s="276" t="s">
         <v>90</v>
       </c>
-      <c r="AC37" s="351" t="s">
+      <c r="AC37" s="348" t="s">
         <v>90</v>
       </c>
       <c r="AD37" s="11"/>
@@ -6200,7 +6184,7 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="194"/>
     </row>
-    <row r="38" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>6</v>
       </c>
@@ -6251,8 +6235,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="388" t="s">
+    <row r="39" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="385" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="80"/>
@@ -6261,16 +6245,16 @@
       <c r="E39" s="81"/>
       <c r="F39" s="280"/>
       <c r="G39" s="81"/>
-      <c r="H39" s="344" t="s">
+      <c r="H39" s="341" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="436" t="s">
+      <c r="I39" s="417" t="s">
         <v>101</v>
       </c>
-      <c r="J39" s="437" t="s">
+      <c r="J39" s="418" t="s">
         <v>101</v>
       </c>
-      <c r="K39" s="437" t="s">
+      <c r="K39" s="418" t="s">
         <v>101</v>
       </c>
       <c r="L39" s="40"/>
@@ -6283,7 +6267,7 @@
       <c r="S39" s="40"/>
       <c r="T39" s="225"/>
       <c r="U39" s="225"/>
-      <c r="V39" s="393"/>
+      <c r="V39" s="390"/>
       <c r="W39" s="47"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="318"/>
@@ -6297,10 +6281,10 @@
       <c r="AG39" s="40"/>
       <c r="AH39" s="202"/>
       <c r="AI39" s="203"/>
-      <c r="AJ39" s="397"/>
+      <c r="AJ39" s="394"/>
       <c r="AK39" s="319"/>
     </row>
-    <row r="40" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>48</v>
       </c>
@@ -6314,7 +6298,7 @@
       <c r="G40" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="340" t="s">
+      <c r="H40" s="337" t="s">
         <v>101</v>
       </c>
       <c r="I40" s="227"/>
@@ -6330,7 +6314,7 @@
       <c r="S40" s="40"/>
       <c r="T40" s="199"/>
       <c r="U40" s="225"/>
-      <c r="V40" s="338"/>
+      <c r="V40" s="335"/>
       <c r="W40" s="47"/>
       <c r="X40" s="225"/>
       <c r="Y40" s="227"/>
@@ -6344,12 +6328,12 @@
       <c r="AG40" s="40"/>
       <c r="AH40" s="40"/>
       <c r="AI40" s="199"/>
-      <c r="AJ40" s="339"/>
+      <c r="AJ40" s="336"/>
       <c r="AK40" s="194" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>16</v>
       </c>
@@ -6357,13 +6341,13 @@
       <c r="C41" s="75"/>
       <c r="D41" s="75"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="343" t="s">
+      <c r="F41" s="340" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="343" t="s">
+      <c r="G41" s="340" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="373" t="s">
+      <c r="H41" s="370" t="s">
         <v>118</v>
       </c>
       <c r="I41" s="202"/>
@@ -6371,8 +6355,8 @@
       <c r="K41" s="223"/>
       <c r="L41" s="219"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="361"/>
-      <c r="O41" s="374" t="s">
+      <c r="N41" s="358"/>
+      <c r="O41" s="371" t="s">
         <v>118</v>
       </c>
       <c r="P41" s="295" t="s">
@@ -6403,20 +6387,20 @@
       <c r="AE41" s="40"/>
       <c r="AF41" s="34"/>
       <c r="AG41" s="40"/>
-      <c r="AH41" s="382" t="s">
+      <c r="AH41" s="379" t="s">
         <v>118</v>
       </c>
-      <c r="AI41" s="382" t="s">
+      <c r="AI41" s="379" t="s">
         <v>118</v>
       </c>
-      <c r="AJ41" s="385" t="s">
+      <c r="AJ41" s="382" t="s">
         <v>118</v>
       </c>
       <c r="AK41" s="193" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>7</v>
       </c>
@@ -6424,13 +6408,13 @@
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
-      <c r="F42" s="341" t="s">
+      <c r="F42" s="338" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="341" t="s">
+      <c r="G42" s="338" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="342" t="s">
+      <c r="H42" s="339" t="s">
         <v>101</v>
       </c>
       <c r="I42" s="202"/>
@@ -6439,7 +6423,7 @@
       <c r="L42" s="203"/>
       <c r="M42" s="203"/>
       <c r="N42" s="202"/>
-      <c r="O42" s="406"/>
+      <c r="O42" s="403"/>
       <c r="P42" s="268" t="s">
         <v>89</v>
       </c>
@@ -6468,10 +6452,10 @@
       <c r="AG42" s="40"/>
       <c r="AH42" s="225"/>
       <c r="AI42" s="199"/>
-      <c r="AJ42" s="386"/>
+      <c r="AJ42" s="383"/>
       <c r="AK42" s="193"/>
     </row>
-    <row r="43" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="148" t="s">
         <v>107</v>
       </c>
@@ -6493,13 +6477,13 @@
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
       <c r="O43" s="42"/>
-      <c r="P43" s="375" t="s">
+      <c r="P43" s="372" t="s">
         <v>118</v>
       </c>
-      <c r="Q43" s="376" t="s">
+      <c r="Q43" s="373" t="s">
         <v>118</v>
       </c>
-      <c r="R43" s="376" t="s">
+      <c r="R43" s="373" t="s">
         <v>118</v>
       </c>
       <c r="S43" s="255"/>
@@ -6521,7 +6505,7 @@
       <c r="AI43" s="25"/>
       <c r="AJ43" s="43"/>
     </row>
-    <row r="44" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>78</v>
       </c>
@@ -6531,7 +6515,7 @@
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="71"/>
-      <c r="H44" s="332"/>
+      <c r="H44" s="330"/>
       <c r="I44" s="11"/>
       <c r="J44" s="40"/>
       <c r="K44" s="199"/>
@@ -6554,7 +6538,7 @@
       <c r="T44" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="U44" s="394"/>
+      <c r="U44" s="391"/>
       <c r="V44" s="38"/>
       <c r="W44" s="11"/>
       <c r="X44" s="40"/>
@@ -6571,7 +6555,7 @@
       <c r="AI44" s="225"/>
       <c r="AJ44" s="29"/>
     </row>
-    <row r="45" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>79</v>
       </c>
@@ -6585,10 +6569,10 @@
         <v>90</v>
       </c>
       <c r="E45" s="75"/>
-      <c r="F45" s="331" t="s">
+      <c r="F45" s="329" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="331" t="s">
+      <c r="G45" s="329" t="s">
         <v>91</v>
       </c>
       <c r="H45" s="79"/>
@@ -6618,7 +6602,7 @@
       <c r="V45" s="46"/>
       <c r="W45" s="44"/>
       <c r="X45" s="40"/>
-      <c r="Y45" s="395"/>
+      <c r="Y45" s="392"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
       <c r="AB45" s="40"/>
@@ -6635,11 +6619,11 @@
       <c r="AI45" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="AJ45" s="403" t="s">
+      <c r="AJ45" s="400" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>80</v>
       </c>
@@ -6647,13 +6631,9 @@
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
       <c r="E46" s="204"/>
-      <c r="F46" s="402"/>
-      <c r="G46" s="326" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="326" t="s">
-        <v>102</v>
-      </c>
+      <c r="F46" s="399"/>
+      <c r="G46" s="399"/>
+      <c r="H46" s="399"/>
       <c r="I46" s="11"/>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
@@ -6677,7 +6657,7 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="40"/>
       <c r="AC46" s="46"/>
-      <c r="AD46" s="396"/>
+      <c r="AD46" s="393"/>
       <c r="AE46" s="227"/>
       <c r="AF46" s="199"/>
       <c r="AG46" s="250"/>
@@ -6685,7 +6665,7 @@
       <c r="AI46" s="40"/>
       <c r="AJ46" s="54"/>
     </row>
-    <row r="47" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>46</v>
       </c>
@@ -6695,7 +6675,7 @@
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
-      <c r="H47" s="409" t="s">
+      <c r="H47" s="406" t="s">
         <v>83</v>
       </c>
       <c r="I47" s="11"/>
@@ -6708,14 +6688,14 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
-      <c r="S47" s="354"/>
-      <c r="T47" s="383" t="s">
+      <c r="S47" s="351"/>
+      <c r="T47" s="380" t="s">
         <v>83</v>
       </c>
-      <c r="U47" s="383" t="s">
+      <c r="U47" s="380" t="s">
         <v>105</v>
       </c>
-      <c r="V47" s="384" t="s">
+      <c r="V47" s="381" t="s">
         <v>105</v>
       </c>
       <c r="W47" s="44"/>
@@ -6723,17 +6703,17 @@
       <c r="Y47" s="165"/>
       <c r="Z47" s="40"/>
       <c r="AA47" s="11"/>
-      <c r="AB47" s="359"/>
-      <c r="AC47" s="408"/>
-      <c r="AD47" s="354"/>
-      <c r="AE47" s="354"/>
-      <c r="AF47" s="359"/>
-      <c r="AG47" s="357"/>
-      <c r="AH47" s="357"/>
-      <c r="AI47" s="360"/>
+      <c r="AB47" s="356"/>
+      <c r="AC47" s="405"/>
+      <c r="AD47" s="351"/>
+      <c r="AE47" s="351"/>
+      <c r="AF47" s="356"/>
+      <c r="AG47" s="354"/>
+      <c r="AH47" s="354"/>
+      <c r="AI47" s="357"/>
       <c r="AJ47" s="54"/>
     </row>
-    <row r="48" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>81</v>
       </c>
@@ -6756,11 +6736,11 @@
       <c r="J48" s="241"/>
       <c r="K48" s="241"/>
       <c r="L48" s="241"/>
-      <c r="M48" s="407"/>
-      <c r="N48" s="335" t="s">
+      <c r="M48" s="404"/>
+      <c r="N48" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="O48" s="335" t="s">
+      <c r="O48" s="332" t="s">
         <v>117</v>
       </c>
       <c r="P48" s="24"/>
@@ -6785,7 +6765,7 @@
       <c r="AI48" s="25"/>
       <c r="AJ48" s="232"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>8</v>
       </c>
@@ -6844,7 +6824,7 @@
       <c r="AJ49" s="35"/>
       <c r="AK49" s="139"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>20</v>
       </c>
@@ -6865,10 +6845,10 @@
       <c r="P50" s="84"/>
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
-      <c r="S50" s="345" t="s">
+      <c r="S50" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="T50" s="345" t="s">
+      <c r="T50" s="342" t="s">
         <v>105</v>
       </c>
       <c r="U50" s="34" t="s">
@@ -6877,29 +6857,29 @@
       <c r="V50" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="W50" s="410" t="s">
+      <c r="W50" s="407" t="s">
         <v>83</v>
       </c>
-      <c r="X50" s="345" t="s">
+      <c r="X50" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="Y50" s="345" t="s">
+      <c r="Y50" s="342" t="s">
         <v>105</v>
       </c>
       <c r="Z50" s="34"/>
-      <c r="AA50" s="415"/>
-      <c r="AB50" s="415"/>
-      <c r="AC50" s="416"/>
+      <c r="AA50" s="412"/>
+      <c r="AB50" s="412"/>
+      <c r="AC50" s="413"/>
       <c r="AD50" s="138"/>
       <c r="AE50" s="120"/>
       <c r="AF50" s="120"/>
       <c r="AG50" s="34"/>
       <c r="AH50" s="34"/>
       <c r="AI50" s="37"/>
-      <c r="AJ50" s="362"/>
+      <c r="AJ50" s="359"/>
       <c r="AK50" s="114"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
@@ -6949,7 +6929,7 @@
       <c r="AI51" s="25"/>
       <c r="AJ51" s="43"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>96</v>
       </c>
@@ -6989,7 +6969,7 @@
       <c r="AI52" s="40"/>
       <c r="AJ52" s="29"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="148" t="s">
         <v>47</v>
       </c>
@@ -7035,7 +7015,7 @@
       <c r="AI53" s="177"/>
       <c r="AJ53" s="182"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>11</v>
       </c>
@@ -7091,7 +7071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>121</v>
       </c>
@@ -7139,7 +7119,7 @@
       <c r="AI55" s="34"/>
       <c r="AJ55" s="45"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>82</v>
       </c>
@@ -7191,7 +7171,7 @@
       <c r="AI56" s="40"/>
       <c r="AJ56" s="29"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>93</v>
       </c>
@@ -7243,7 +7223,7 @@
       <c r="AI57" s="25"/>
       <c r="AJ57" s="43"/>
     </row>
-    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>62</v>
       </c>
@@ -7323,12 +7303,12 @@
       <c r="AI58" s="306" t="s">
         <v>105</v>
       </c>
-      <c r="AJ58" s="348" t="s">
+      <c r="AJ58" s="345" t="s">
         <v>105</v>
       </c>
       <c r="AK58" s="121"/>
     </row>
-    <row r="59" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>113</v>
       </c>
@@ -7399,7 +7379,7 @@
       <c r="AJ59" s="45"/>
       <c r="AL59" s="121"/>
     </row>
-    <row r="60" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>122</v>
       </c>
@@ -7447,10 +7427,10 @@
         <v>117</v>
       </c>
       <c r="Y60" s="51"/>
-      <c r="Z60" s="425" t="s">
+      <c r="Z60" s="419" t="s">
         <v>115</v>
       </c>
-      <c r="AA60" s="426"/>
+      <c r="AA60" s="420"/>
       <c r="AB60" s="59"/>
       <c r="AC60" s="142" t="s">
         <v>114</v>
@@ -7471,7 +7451,7 @@
       <c r="AI60" s="59"/>
       <c r="AJ60" s="62"/>
     </row>
-    <row r="61" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>116</v>
       </c>
@@ -7483,10 +7463,10 @@
       <c r="G61" s="89"/>
       <c r="H61" s="110"/>
       <c r="I61" s="217"/>
-      <c r="J61" s="352"/>
-      <c r="K61" s="353"/>
+      <c r="J61" s="349"/>
+      <c r="K61" s="350"/>
       <c r="L61" s="217"/>
-      <c r="M61" s="352"/>
+      <c r="M61" s="349"/>
       <c r="N61" s="34"/>
       <c r="O61" s="88"/>
       <c r="P61" s="61"/>
@@ -7494,28 +7474,28 @@
       <c r="R61" s="59"/>
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
-      <c r="U61" s="353"/>
+      <c r="U61" s="350"/>
       <c r="V61" s="30"/>
       <c r="W61" s="61"/>
       <c r="X61" s="51"/>
       <c r="Y61" s="51"/>
-      <c r="Z61" s="352"/>
-      <c r="AA61" s="353"/>
+      <c r="Z61" s="349"/>
+      <c r="AA61" s="350"/>
       <c r="AB61" s="59"/>
       <c r="AC61" s="142"/>
-      <c r="AD61" s="355" t="s">
+      <c r="AD61" s="352" t="s">
         <v>105</v>
       </c>
-      <c r="AE61" s="356" t="s">
+      <c r="AE61" s="353" t="s">
         <v>105</v>
       </c>
       <c r="AF61" s="51"/>
-      <c r="AG61" s="352"/>
+      <c r="AG61" s="349"/>
       <c r="AH61" s="217"/>
       <c r="AI61" s="51"/>
       <c r="AJ61" s="62"/>
     </row>
-    <row r="62" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>110</v>
       </c>
@@ -7539,7 +7519,7 @@
       <c r="S62" s="59"/>
       <c r="T62" s="59"/>
       <c r="U62" s="138"/>
-      <c r="V62" s="358"/>
+      <c r="V62" s="355"/>
       <c r="W62" s="61"/>
       <c r="X62" s="51"/>
       <c r="Y62" s="51"/>
@@ -7557,7 +7537,7 @@
       <c r="AI62" s="51"/>
       <c r="AJ62" s="62"/>
     </row>
-    <row r="63" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>63</v>
       </c>
@@ -7653,7 +7633,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>54</v>
       </c>
@@ -7720,7 +7700,7 @@
       <c r="AJ64" s="123"/>
       <c r="AK64" s="121"/>
     </row>
-    <row r="65" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>119</v>
       </c>
@@ -7815,7 +7795,7 @@
       </c>
       <c r="AK65" s="121"/>
     </row>
-    <row r="66" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>120</v>
       </c>
@@ -7886,45 +7866,45 @@
       </c>
       <c r="AK66" s="121"/>
     </row>
-    <row r="67" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="363" t="s">
+      <c r="B67" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="363" t="s">
+      <c r="C67" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="363" t="s">
+      <c r="D67" s="360" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="364" t="s">
+      <c r="E67" s="361" t="s">
         <v>118</v>
       </c>
-      <c r="F67" s="365" t="s">
+      <c r="F67" s="362" t="s">
         <v>118</v>
       </c>
-      <c r="G67" s="366" t="s">
+      <c r="G67" s="363" t="s">
         <v>118</v>
       </c>
       <c r="H67" s="256"/>
-      <c r="I67" s="367" t="s">
+      <c r="I67" s="364" t="s">
         <v>118</v>
       </c>
-      <c r="J67" s="368" t="s">
+      <c r="J67" s="365" t="s">
         <v>118</v>
       </c>
-      <c r="K67" s="368" t="s">
+      <c r="K67" s="365" t="s">
         <v>118</v>
       </c>
-      <c r="L67" s="369" t="s">
+      <c r="L67" s="366" t="s">
         <v>118</v>
       </c>
-      <c r="M67" s="364" t="s">
+      <c r="M67" s="361" t="s">
         <v>118</v>
       </c>
-      <c r="N67" s="369" t="s">
+      <c r="N67" s="366" t="s">
         <v>118</v>
       </c>
       <c r="O67" s="257"/>
@@ -7935,25 +7915,25 @@
       <c r="T67" s="305"/>
       <c r="U67" s="305"/>
       <c r="V67" s="316"/>
-      <c r="W67" s="370" t="s">
+      <c r="W67" s="367" t="s">
         <v>118</v>
       </c>
-      <c r="X67" s="371" t="s">
+      <c r="X67" s="368" t="s">
         <v>118</v>
       </c>
-      <c r="Y67" s="371" t="s">
+      <c r="Y67" s="368" t="s">
         <v>118</v>
       </c>
-      <c r="Z67" s="371" t="s">
+      <c r="Z67" s="368" t="s">
         <v>118</v>
       </c>
-      <c r="AA67" s="371" t="s">
+      <c r="AA67" s="368" t="s">
         <v>118</v>
       </c>
-      <c r="AB67" s="371" t="s">
+      <c r="AB67" s="368" t="s">
         <v>118</v>
       </c>
-      <c r="AC67" s="372" t="s">
+      <c r="AC67" s="369" t="s">
         <v>118</v>
       </c>
       <c r="AD67" s="317"/>
@@ -7965,7 +7945,7 @@
       <c r="AJ67" s="258"/>
       <c r="AK67" s="122"/>
     </row>
-    <row r="68" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="91" t="s">
         <v>95</v>
       </c>
@@ -8016,7 +7996,7 @@
       </c>
       <c r="AL68" s="121"/>
     </row>
-    <row r="69" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="91" t="s">
         <v>72</v>
       </c>
@@ -8113,7 +8093,7 @@
       </c>
       <c r="AL69" s="121"/>
     </row>
-    <row r="70" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="21" t="s">
         <v>64</v>
       </c>
@@ -8182,7 +8162,7 @@
       </c>
       <c r="AK70" s="121"/>
     </row>
-    <row r="71" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="67"/>
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
@@ -8219,73 +8199,73 @@
       <c r="AI71" s="67"/>
       <c r="AJ71" s="67"/>
     </row>
-    <row r="72" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="427" t="s">
+      <c r="B72" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="428"/>
-      <c r="D72" s="428"/>
-      <c r="E72" s="428"/>
-      <c r="F72" s="428"/>
-      <c r="G72" s="428"/>
-      <c r="H72" s="430"/>
-      <c r="I72" s="427" t="s">
+      <c r="C72" s="422"/>
+      <c r="D72" s="422"/>
+      <c r="E72" s="422"/>
+      <c r="F72" s="422"/>
+      <c r="G72" s="422"/>
+      <c r="H72" s="424"/>
+      <c r="I72" s="421" t="s">
         <v>125</v>
       </c>
-      <c r="J72" s="428"/>
-      <c r="K72" s="428"/>
-      <c r="L72" s="428"/>
-      <c r="M72" s="428"/>
-      <c r="N72" s="428"/>
-      <c r="O72" s="430"/>
-      <c r="P72" s="427" t="s">
+      <c r="J72" s="422"/>
+      <c r="K72" s="422"/>
+      <c r="L72" s="422"/>
+      <c r="M72" s="422"/>
+      <c r="N72" s="422"/>
+      <c r="O72" s="424"/>
+      <c r="P72" s="421" t="s">
         <v>127</v>
       </c>
-      <c r="Q72" s="428"/>
-      <c r="R72" s="428"/>
-      <c r="S72" s="428"/>
-      <c r="T72" s="428"/>
-      <c r="U72" s="428"/>
-      <c r="V72" s="430"/>
-      <c r="W72" s="427" t="s">
+      <c r="Q72" s="422"/>
+      <c r="R72" s="422"/>
+      <c r="S72" s="422"/>
+      <c r="T72" s="422"/>
+      <c r="U72" s="422"/>
+      <c r="V72" s="424"/>
+      <c r="W72" s="421" t="s">
         <v>108</v>
       </c>
-      <c r="X72" s="428"/>
-      <c r="Y72" s="428"/>
-      <c r="Z72" s="428"/>
-      <c r="AA72" s="428"/>
-      <c r="AB72" s="428"/>
-      <c r="AC72" s="430"/>
-      <c r="AD72" s="427" t="s">
+      <c r="X72" s="422"/>
+      <c r="Y72" s="422"/>
+      <c r="Z72" s="422"/>
+      <c r="AA72" s="422"/>
+      <c r="AB72" s="422"/>
+      <c r="AC72" s="424"/>
+      <c r="AD72" s="421" t="s">
         <v>126</v>
       </c>
-      <c r="AE72" s="428"/>
-      <c r="AF72" s="428"/>
-      <c r="AG72" s="428"/>
-      <c r="AH72" s="428"/>
-      <c r="AI72" s="428"/>
-      <c r="AJ72" s="429"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AE72" s="422"/>
+      <c r="AF72" s="422"/>
+      <c r="AG72" s="422"/>
+      <c r="AH72" s="422"/>
+      <c r="AI72" s="422"/>
+      <c r="AJ72" s="423"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O76" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="Z60:AA60"/>
     <mergeCell ref="AD72:AJ72"/>
     <mergeCell ref="W72:AC72"/>
     <mergeCell ref="B72:H72"/>
     <mergeCell ref="I72:O72"/>
     <mergeCell ref="P72:V72"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8304,28 +8284,28 @@
       <selection activeCell="I6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="233"/>
-    <col min="2" max="2" width="16.42578125" style="233" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="233" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="233" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="233"/>
+    <col min="1" max="1" width="9.109375" style="233"/>
+    <col min="2" max="2" width="16.44140625" style="233" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="233" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="233" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="233"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="431" t="s">
+    <row r="1" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="205"/>
       <c r="C2" s="96"/>
       <c r="D2" s="97"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="238"/>
       <c r="C3" s="96" t="s">
         <v>27</v>
@@ -8334,12 +8314,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="205"/>
       <c r="C4" s="96"/>
       <c r="D4" s="97"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="206"/>
       <c r="C5" s="96" t="s">
         <v>27</v>
@@ -8348,12 +8328,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="205"/>
       <c r="C6" s="96"/>
       <c r="D6" s="97"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="207"/>
       <c r="C7" s="96" t="s">
         <v>27</v>
@@ -8362,12 +8342,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="205"/>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="98"/>
       <c r="C9" s="96" t="s">
         <v>27</v>
@@ -8376,25 +8356,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="208"/>
       <c r="C10" s="209"/>
       <c r="D10" s="97"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="236"/>
       <c r="C11" s="210"/>
       <c r="D11" s="97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="211"/>
       <c r="C12" s="96"/>
       <c r="D12" s="212"/>
       <c r="F12" s="235"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="213"/>
       <c r="C13" s="96" t="s">
         <v>27</v>
@@ -8403,12 +8383,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="205"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="240"/>
       <c r="C15" s="96" t="s">
         <v>27</v>
@@ -8417,12 +8397,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="205"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="99"/>
       <c r="C17" s="96" t="s">
         <v>27</v>
@@ -8431,12 +8411,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="205"/>
       <c r="C18" s="96"/>
       <c r="D18" s="97"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="234"/>
       <c r="C19" s="96" t="s">
         <v>27</v>
@@ -8445,12 +8425,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="205"/>
       <c r="C20" s="96"/>
       <c r="D20" s="97"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="100"/>
       <c r="C21" s="96" t="s">
         <v>27</v>
@@ -8459,12 +8439,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="205"/>
       <c r="C22" s="96"/>
       <c r="D22" s="97"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="101"/>
       <c r="C23" s="96" t="s">
         <v>27</v>
@@ -8473,12 +8453,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="205"/>
       <c r="C24" s="205"/>
       <c r="D24" s="97"/>
     </row>
-    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="102"/>
       <c r="C25" s="96" t="s">
         <v>27</v>
@@ -8487,79 +8467,79 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="205"/>
       <c r="C26" s="205"/>
       <c r="D26" s="205"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="214"/>
       <c r="C27" s="205"/>
       <c r="D27" s="97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="205"/>
       <c r="C28" s="205"/>
       <c r="D28" s="97"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="103"/>
       <c r="C29" s="205"/>
       <c r="D29" s="97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="205"/>
       <c r="C30" s="205"/>
       <c r="D30" s="205"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="104"/>
       <c r="C31" s="205"/>
       <c r="D31" s="97">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="205"/>
       <c r="C32" s="205"/>
       <c r="D32" s="205"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="215"/>
       <c r="C33" s="205"/>
       <c r="D33" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="205"/>
       <c r="C34" s="205"/>
       <c r="D34" s="205"/>
     </row>
-    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="432" t="s">
+    <row r="35" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="434" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="432"/>
-      <c r="D35" s="432"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="432" t="s">
+      <c r="C35" s="434"/>
+      <c r="D35" s="434"/>
+    </row>
+    <row r="36" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="434" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="432"/>
-      <c r="D36" s="432"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="432" t="s">
+      <c r="C36" s="434"/>
+      <c r="D36" s="434"/>
+    </row>
+    <row r="37" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="434" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="432"/>
-      <c r="D37" s="432"/>
+      <c r="C37" s="434"/>
+      <c r="D37" s="434"/>
     </row>
   </sheetData>
   <mergeCells count="4">
